--- a/data/trans_dic/P44A$analisis-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1653779192657075</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02198288409485943</v>
+        <v>0.02198288409485942</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0.2460349812692983</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05537329330448559</v>
+        <v>0.05537329330448561</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.05564145387243002</v>
@@ -678,26 +678,26 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04188135567989552</v>
+        <v>0.04229718999040993</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.06475629288348969</v>
+        <v>0.06589014282653442</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01397285557264483</v>
+        <v>0.01398428988012559</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08890329320772289</v>
+        <v>0.09110754596873842</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01294373162708745</v>
+        <v>0.01392993642505622</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6031795736085682</v>
+        <v>0.471294730855931</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3669126686976205</v>
+        <v>0.3940122921547133</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07105241731020705</v>
+        <v>0.07162174762164628</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.5470563022514259</v>
+        <v>0.5590987884052416</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1361321828714315</v>
+        <v>0.1262320582559038</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2865510609519445</v>
+        <v>0.2387748902227559</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3617758638711804</v>
+        <v>0.37576674924737</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0708959816130437</v>
+        <v>0.07619351388209922</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1746482646214668</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3176823673559204</v>
+        <v>0.3176823673559203</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1587730510437613</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04093131994140851</v>
+        <v>0.0411082049322546</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07918621336196277</v>
+        <v>0.08735685194225717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2229182093740009</v>
+        <v>0.2172331568168478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04629258736688403</v>
+        <v>0.04708275957206765</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2114972667431488</v>
+        <v>0.2162668005358748</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06769157303333523</v>
+        <v>0.06787643432724384</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06309446557428791</v>
+        <v>0.06381120066117495</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2522123371228545</v>
+        <v>0.2464799396402647</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3997598818896704</v>
+        <v>0.3760291022519348</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6714729503337359</v>
+        <v>0.6743354964998085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4673203305481978</v>
+        <v>0.4617490661616457</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3535471864969137</v>
+        <v>0.3531028100477319</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7732094097754215</v>
+        <v>0.7756531108048712</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4274441030787182</v>
+        <v>0.436166932882099</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2851621315633217</v>
+        <v>0.2824769715510689</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5652797766650022</v>
+        <v>0.5295036760623274</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4250524945771146</v>
+        <v>0.4145910738357652</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.7042488434663735</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.03617984273383617</v>
+        <v>0.03617984273383616</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5898460477486092</v>
@@ -878,7 +878,7 @@
         <v>0.6205322794933941</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.0570591228229086</v>
+        <v>0.05705912282290859</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3242470262378835</v>
+        <v>0.3238903591144349</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3356403316853595</v>
+        <v>0.3218176660734479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03362052518500076</v>
+        <v>0.03372489719197659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1550411957803118</v>
+        <v>0.1685803796572255</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4166561487722976</v>
+        <v>0.4328269019851333</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01067219263130225</v>
+        <v>0.01083198158952059</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3347490150018387</v>
+        <v>0.3326225941112534</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4547075255606843</v>
+        <v>0.4384092814297204</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03055235496154361</v>
+        <v>0.03161153343679232</v>
       </c>
     </row>
     <row r="12">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7582047544251574</v>
+        <v>0.7570906751459908</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1499855767309878</v>
+        <v>0.1523131062306503</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.749021626882695</v>
+        <v>0.7761205280186807</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.90147948241784</v>
+        <v>0.90161779137616</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09313432686172445</v>
+        <v>0.08430066050768115</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8091497206087137</v>
+        <v>0.8061275415739123</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7789175742726792</v>
+        <v>0.7649288313224394</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09785180187959458</v>
+        <v>0.09795193708493162</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1613889448772284</v>
+        <v>0.1622389372748006</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1549396949694394</v>
+        <v>0.1470026030442325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004367471361224754</v>
+        <v>0.009599028832300023</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1086110754031456</v>
+        <v>0.1090737601676018</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.008156170922237615</v>
+        <v>0.008165932093174552</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1305011753103583</v>
+        <v>0.1266928272536058</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1744475441777032</v>
+        <v>0.1596724185249841</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01481092820853952</v>
+        <v>0.01526353712298297</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7850243428170423</v>
+        <v>0.7864360424751237</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.512874186607308</v>
+        <v>0.4998589392714482</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09807337646439229</v>
+        <v>0.1054669451430805</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4573960056576319</v>
+        <v>0.4727423522546029</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5257122187869411</v>
+        <v>0.5394395983516229</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08110012170825415</v>
+        <v>0.07752790183991791</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5092659655872557</v>
+        <v>0.5198468318177158</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4357494194972673</v>
+        <v>0.4372287102216368</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07054542287874077</v>
+        <v>0.07313761815307936</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>0.263836611951089</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1049413488977646</v>
+        <v>0.1049413488977647</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.4213630976205164</v>
@@ -1113,25 +1113,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03649871189397561</v>
+        <v>0.03583343744995778</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1581682962764036</v>
+        <v>0.1585110327522823</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02643967810882583</v>
+        <v>0.02621881966804249</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1670906968232065</v>
+        <v>0.1665893101100155</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1411592084368316</v>
+        <v>0.1396080290719555</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05480839990683336</v>
+        <v>0.04787708113760844</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6953504230927697</v>
+        <v>0.8470064971245342</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3152415914454132</v>
+        <v>0.3180195727630628</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.836624321186083</v>
+        <v>0.836454333186155</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1</v>
+        <v>0.7764536251815269</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2340147621362543</v>
+        <v>0.2366045907842844</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7543823465123062</v>
+        <v>0.6751940567415371</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8602330107204029</v>
+        <v>0.8535204530944482</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2371391124920399</v>
+        <v>0.2289831789079656</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.3857538039591265</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.09336547129918894</v>
+        <v>0.09336547129918896</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.4669194311865493</v>
@@ -1205,7 +1205,7 @@
         <v>0.2781156344499136</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.1278027982613473</v>
+        <v>0.1278027982613474</v>
       </c>
     </row>
     <row r="20">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0</v>
+        <v>0.09868824302686741</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07496892903867991</v>
+        <v>0.07393738801052267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.335512855671708</v>
+        <v>0.1758959691245082</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1188065460043004</v>
+        <v>0.1170559648872359</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04024668660807439</v>
+        <v>0.03334298212196844</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1966444224084169</v>
+        <v>0.200372558877691</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1063147132881976</v>
+        <v>0.1053293062621132</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08126630857413951</v>
+        <v>0.07381489245151407</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6612557682093175</v>
+        <v>0.7642937716053508</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.518404726211638</v>
+        <v>0.5130383222007622</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2606772575124145</v>
+        <v>0.2694918501844897</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7651450816487428</v>
+        <v>0.7609067781660614</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1859147852521745</v>
+        <v>0.1918256159285672</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7317346220413278</v>
+        <v>0.7296684306942323</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5562315839267663</v>
+        <v>0.5209736992548463</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2080576032148027</v>
+        <v>0.1999925560979897</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>0.5292024709061695</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2159946633192156</v>
+        <v>0.2159946633192155</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.5187830737397505</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.370371230693232</v>
+        <v>0.3522864395847642</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3661765277783209</v>
+        <v>0.3772305576177507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1494024252514964</v>
+        <v>0.1540823160540102</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2825060669784293</v>
+        <v>0.29725771824</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.157737213249018</v>
+        <v>0.1535559482935923</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06098564886154005</v>
+        <v>0.05964192318200903</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3993319669381933</v>
+        <v>0.3859225669286243</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3288303311593107</v>
+        <v>0.3237597998585326</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1190574796483485</v>
+        <v>0.1161297386027013</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9267236017626822</v>
+        <v>0.8662785399776395</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6951492275104182</v>
+        <v>0.6807108161800028</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2917277843926322</v>
+        <v>0.3028252791143862</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7691390952923857</v>
+        <v>0.7599478500644509</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5248492730894001</v>
+        <v>0.5149660438338812</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1463845974635885</v>
+        <v>0.1420363532751815</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.757826611881442</v>
+        <v>0.7653169341702321</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5777447129789965</v>
+        <v>0.5532116703974604</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1964253673902907</v>
+        <v>0.1962528175464084</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>0.2692579042754298</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.08575037050713394</v>
+        <v>0.08575037050713392</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.2831909300016197</v>
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1281661691443704</v>
+        <v>0.1231004829205053</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1073387899880371</v>
+        <v>0.1265083814077198</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04958955290845537</v>
+        <v>0.05012991725844418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07131147655932947</v>
+        <v>0.07127980616001886</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1226882329489852</v>
+        <v>0.1274390853207409</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1611839258587837</v>
+        <v>0.1570925510568197</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1052127253061773</v>
+        <v>0.1047265976390525</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09720350617963273</v>
+        <v>0.09800754043000702</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5318337732473585</v>
+        <v>0.5022165970339044</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4782148629436987</v>
+        <v>0.5128515716183039</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1301874389649488</v>
+        <v>0.1282963833285694</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5710339983643213</v>
+        <v>0.5682632103882276</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4570948358389944</v>
+        <v>0.4677805224310538</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2199129055218959</v>
+        <v>0.221465317483402</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4757631188130168</v>
+        <v>0.4608569609594443</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3818499728338107</v>
+        <v>0.3776897496110244</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1654769749734514</v>
+        <v>0.1628561135561021</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2958959896920056</v>
+        <v>0.3008937213192656</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.108616797543558</v>
+        <v>0.1089408782654963</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2163826580787245</v>
+        <v>0.2354014365920429</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2429139789973114</v>
+        <v>0.2578433312882236</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.09713917287599012</v>
+        <v>0.09699602114165572</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.278966699221934</v>
+        <v>0.2788090849800882</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2920361017237663</v>
+        <v>0.2948352761696253</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1099031108998274</v>
+        <v>0.1089342563724473</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4495511935597863</v>
+        <v>0.448797313038644</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1615474696742403</v>
+        <v>0.1628728495461548</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.410063196192091</v>
+        <v>0.4152939978097556</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4379549935852354</v>
+        <v>0.4451216788160562</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1414757185727755</v>
+        <v>0.1388200890347921</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4177179280495245</v>
+        <v>0.4179451930885836</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4137089365894571</v>
+        <v>0.4116231887513355</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1439951043049849</v>
+        <v>0.1441188683441796</v>
       </c>
     </row>
     <row r="31">
@@ -1838,26 +1838,26 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3481</v>
+        <v>3567</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1420</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="7">
@@ -1868,29 +1868,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4195</v>
+        <v>3278</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8575</v>
+        <v>9208</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5225</v>
+        <v>5267</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>8636</v>
+        <v>8826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4922</v>
+        <v>4564</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5165</v>
+        <v>4304</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14166</v>
+        <v>14714</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7777</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="8">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>738</v>
+        <v>814</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14498</v>
+        <v>14128</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8920</v>
+        <v>9121</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3014</v>
+        <v>3022</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>27041</v>
+        <v>26426</v>
       </c>
     </row>
     <row r="11">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9639</v>
+        <v>9067</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6257</v>
+        <v>6284</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30394</v>
+        <v>30031</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7217</v>
+        <v>7208</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4410</v>
+        <v>4424</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18028</v>
+        <v>18396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12697</v>
+        <v>12578</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8492</v>
+        <v>7955</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45572</v>
+        <v>44450</v>
       </c>
     </row>
     <row r="12">
@@ -2119,31 +2119,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7011</v>
+        <v>6722</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2064</v>
+        <v>2244</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8313</v>
+        <v>8636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7542</v>
+        <v>7494</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18570</v>
+        <v>17905</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3448</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="15">
@@ -2157,28 +2157,28 @@
         <v>9219</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15837</v>
+        <v>15813</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8345</v>
+        <v>8475</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9971</v>
+        <v>10332</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17986</v>
+        <v>17989</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5327</v>
+        <v>4822</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18231</v>
+        <v>18163</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31811</v>
+        <v>31240</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11042</v>
+        <v>11053</v>
       </c>
     </row>
     <row r="16">
@@ -2263,31 +2263,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1762</v>
+        <v>1771</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4032</v>
+        <v>3826</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>259</v>
+        <v>569</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2218</v>
+        <v>2227</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3210</v>
+        <v>3117</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8102</v>
+        <v>7416</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1820</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="19">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8572</v>
+        <v>8587</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13348</v>
+        <v>13009</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5811</v>
+        <v>6249</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6258</v>
+        <v>6468</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10736</v>
+        <v>11016</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5161</v>
+        <v>4934</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12528</v>
+        <v>12789</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20239</v>
+        <v>20308</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8669</v>
+        <v>8988</v>
       </c>
     </row>
     <row r="20">
@@ -2413,25 +2413,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1549</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="23">
@@ -2442,31 +2442,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4379</v>
+        <v>5334</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>2972</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4262</v>
+        <v>4299</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5493</v>
+        <v>5492</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3989</v>
+        <v>3097</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3451</v>
+        <v>3489</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9704</v>
+        <v>8686</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5988</v>
+        <v>5941</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6702</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="24">
@@ -2551,31 +2551,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2837</v>
+        <v>2798</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2111</v>
+        <v>1107</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1249</v>
+        <v>1035</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3056</v>
+        <v>3114</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5596</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="27">
@@ -2586,31 +2586,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6115</v>
+        <v>7068</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5385</v>
+        <v>5329</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9863</v>
+        <v>10197</v>
       </c>
       <c r="F27" s="6" t="n">
         <v>6292</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6584</v>
+        <v>6548</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5769</v>
+        <v>5952</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11371</v>
+        <v>11339</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10563</v>
+        <v>9894</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>14328</v>
+        <v>13773</v>
       </c>
     </row>
     <row r="28">
@@ -2695,31 +2695,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5817</v>
+        <v>5533</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14764</v>
+        <v>15210</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>18161</v>
+        <v>18730</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5812</v>
+        <v>6115</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4448</v>
+        <v>4330</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8218</v>
+        <v>8037</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>14487</v>
+        <v>14000</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>22531</v>
+        <v>22183</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>30516</v>
+        <v>29765</v>
       </c>
     </row>
     <row r="31">
@@ -2730,31 +2730,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14554</v>
+        <v>13605</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28028</v>
+        <v>27446</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>35462</v>
+        <v>36811</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15823</v>
+        <v>15634</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14800</v>
+        <v>14521</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>19726</v>
+        <v>19140</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>27492</v>
+        <v>27763</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>39586</v>
+        <v>37905</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>50346</v>
+        <v>50302</v>
       </c>
     </row>
     <row r="32">
@@ -2839,31 +2839,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3449</v>
+        <v>3313</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2834</v>
+        <v>3341</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>7165</v>
+        <v>7243</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>18227</v>
+        <v>18933</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>6762</v>
+        <v>6591</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>4195</v>
+        <v>4176</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>28486</v>
+        <v>28721</v>
       </c>
     </row>
     <row r="35">
@@ -2874,31 +2874,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>14311</v>
+        <v>13514</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12628</v>
+        <v>13542</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>18810</v>
+        <v>18537</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8591</v>
+        <v>8550</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6157</v>
+        <v>6301</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>32671</v>
+        <v>32902</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>19960</v>
+        <v>19335</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>15227</v>
+        <v>15061</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>48493</v>
+        <v>47725</v>
       </c>
     </row>
     <row r="36">
@@ -2983,31 +2983,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>47250</v>
+        <v>48049</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>62006</v>
+        <v>62191</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>23142</v>
+        <v>25176</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>28209</v>
+        <v>29942</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>51315</v>
+        <v>51240</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>60346</v>
+        <v>60311</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>80547</v>
+        <v>81319</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>120799</v>
+        <v>119734</v>
       </c>
     </row>
     <row r="39">
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>71787</v>
+        <v>71667</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>92223</v>
+        <v>92979</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>43857</v>
+        <v>44416</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>50858</v>
+        <v>51690</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>74737</v>
+        <v>73334</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>90360</v>
+        <v>90409</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>114106</v>
+        <v>113531</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>158270</v>
+        <v>158406</v>
       </c>
     </row>
     <row r="40">
